--- a/xlsx/管理咨询_intext.xlsx
+++ b/xlsx/管理咨询_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>政策_政策_管理_管理咨询</t>
@@ -35,25 +35,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E8%AB%AE%E8%A9%A2%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>波士頓諮詢公司</t>
+    <t>波士顿谘询公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%82%AF%E9%8C%AB%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>麥肯錫公司</t>
+    <t>麦肯锡公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%81%A9%E7%AD%96%E7%95%A5%E9%A1%A7%E5%95%8F%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>貝恩策略顧問公司</t>
+    <t>贝恩策略顾问公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%A2%E5%8D%9A%E5%92%A8%E8%A9%A2%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>畢博咨詢公司</t>
+    <t>毕博咨询公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%84%8F%E5%87%AF%E5%92%A8%E8%AF%A2%E5%85%AC%E5%8F%B8</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E6%B4%9B%E6%99%AE</t>
   </si>
   <si>
-    <t>蓋洛普</t>
+    <t>盖洛普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ECA%E5%9B%BD%E9%99%85</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/CGI%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>CGI集團</t>
+    <t>CGI集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E9%80%9A</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%90%E8%A8%8A</t>
   </si>
   <si>
-    <t>源訊</t>
+    <t>源讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%AD%9A%E7%91%9F%E6%96%AF</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%88%A9%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>優利系統</t>
+    <t>优利系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%91%9E%E5%92%A8%E8%AF%A2</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%9C%E7%9D%BF%E6%83%A0%E6%82%85</t>
   </si>
   <si>
-    <t>韜睿惠悅</t>
+    <t>韬睿惠悦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%9B%8A%E9%9B%86%E5%9B%A2</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%A4%A7_(%E6%9C%83%E8%A8%88%E5%B8%AB%E4%BA%8B%E5%8B%99%E6%89%80)</t>
   </si>
   <si>
-    <t>四大 (會計師事務所)</t>
+    <t>四大 (会计师事务所)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Capability_management</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -551,13 +551,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -683,25 +683,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -779,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -839,13 +839,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
